--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>991488.8204323051</v>
+        <v>989601.238915903</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>309.3220674585976</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>215.4905297143698</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>126.5499088748945</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>245.3841855516875</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>135.4095352681599</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.5710019689118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037129</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5687190723336</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>25.31590541686252</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>143.6721808606589</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.81643793528814</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>101.2898147863549</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.188007196468</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>44.13668351152771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>211.4593910168946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185893</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>46.04381361151501</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,16 +2770,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>94.16481274941221</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965516</v>
+        <v>93.41221638965537</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801219</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437405</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>43.21861285489488</v>
+        <v>42.20569823125267</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523561</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3196,7 +3196,7 @@
         <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329011</v>
       </c>
       <c r="G34" t="n">
         <v>98.3616783337369</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463091</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2130.940772869852</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1778.172117599737</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1404.706359338657</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.706359338657</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,22 +4416,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1794.737189801198</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1425.774672860787</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>1425.774672860787</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>1039.986420262542</v>
+        <v>769.0955750279682</v>
       </c>
       <c r="F5" t="n">
-        <v>629.0005154729349</v>
+        <v>358.1096702383606</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>344.1862661769515</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.737189801198</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.6044479702274</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316971</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1161.108455511198</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>770.969123535386</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>702.55736257324</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>702.55736257324</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>702.55736257324</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550601</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610189</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5033,25 +5033,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5230,19 +5230,19 @@
         <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>964.1357418247858</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>964.1357418247858</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>819.0123268140193</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>819.0123268140193</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5291,19 +5291,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>757.4105722479405</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>588.4743893200337</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>438.3577499076979</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>270.1824282275183</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>1387.841167119728</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>1159.85161622171</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>939.0590370781803</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>315.6192635197074</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201016</v>
+        <v>199.5300356889271</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5680,13 +5680,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609663</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550795</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181189</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201016</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201016</v>
+        <v>199.5300356889271</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5786,7 +5786,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1196.088769018223</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298185</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962218</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>710.3120936331045</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1388.625354197834</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1188.705344113386</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.9199289028916</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="W22" t="n">
-        <v>754.8946022306072</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X22" t="n">
-        <v>710.3120936331045</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y22" t="n">
-        <v>710.3120936331045</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1085.400916011945</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>796.2722772255034</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255034</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,34 +6239,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>294.1440025502365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>294.1440025502365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>294.1440025502365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>294.1440025502365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>294.1440025502365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>294.1440025502365</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>143.7259940981798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609669</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>696.5850465240063</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>696.5850465240063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>475.7924673804762</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6479,31 +6479,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,37 +6528,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542204</v>
+        <v>439.5324299542168</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076845</v>
+        <v>326.3571123076806</v>
       </c>
       <c r="D31" t="n">
-        <v>232.0013381767197</v>
+        <v>232.0013381767155</v>
       </c>
       <c r="E31" t="n">
-        <v>232.0013381767197</v>
+        <v>139.8491098756926</v>
       </c>
       <c r="F31" t="n">
-        <v>140.8722559601802</v>
+        <v>139.8491098756926</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818949</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652485</v>
+        <v>730.4517433652451</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030893</v>
+        <v>565.4200295030857</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028562</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525398</v>
@@ -7108,10 +7108,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7403,19 +7403,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7634,49 +7634,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>8.406710013102128</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,28 +9006,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>28.12263706263042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>277.6717966208062</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>39.88923345256772</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>15.83804904622903</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>165.9802687929766</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>142.8508174759321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.4198406026824</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>88.09739043224799</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>65.95700631227295</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>29.89407122271366</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0.7763452073248516</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>181.5729718775094</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>10.08817004149461</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>64.37543185275696</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801197</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437426</v>
       </c>
       <c r="G31" t="n">
-        <v>68.07169897992551</v>
+        <v>69.08461360356793</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897893</v>
+        <v>93.71057173897914</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>991830.5252751355</v>
+        <v>991830.5252751358</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>991830.5252751358</v>
+        <v>991830.5252751356</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377087</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="F2" t="n">
+        <v>391029.0597377089</v>
+      </c>
+      <c r="G2" t="n">
         <v>391029.0597377088</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>391029.0597377089</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>391029.0597377089</v>
+      </c>
+      <c r="J2" t="n">
         <v>391029.0597377088</v>
       </c>
-      <c r="I2" t="n">
-        <v>391029.0597377088</v>
-      </c>
-      <c r="J2" t="n">
-        <v>391029.0597377089</v>
-      </c>
       <c r="K2" t="n">
-        <v>406822.1373452705</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
+        <v>410520.8849321422</v>
+      </c>
+      <c r="M2" t="n">
         <v>410520.8849321421</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>410520.8849321422</v>
+      </c>
+      <c r="O2" t="n">
+        <v>410520.8849321422</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321423</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410520.8849321421</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.884932142</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321422</v>
       </c>
     </row>
     <row r="3">
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086679</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563568</v>
+        <v>33210.29213563565</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275964</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.45686275957</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-419081.0305970348</v>
       </c>
       <c r="C6" t="n">
-        <v>170886.8486175096</v>
+        <v>170886.8486175094</v>
       </c>
       <c r="D6" t="n">
         <v>170886.8486175095</v>
       </c>
       <c r="E6" t="n">
-        <v>-241163.9723093432</v>
+        <v>-241261.4314353152</v>
       </c>
       <c r="F6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.605041581</v>
       </c>
       <c r="G6" t="n">
-        <v>283996.0641675532</v>
+        <v>283898.6050415809</v>
       </c>
       <c r="H6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.605041581</v>
       </c>
       <c r="I6" t="n">
-        <v>283996.0641675531</v>
+        <v>283898.6050415809</v>
       </c>
       <c r="J6" t="n">
-        <v>107572.8449749603</v>
+        <v>107475.3858489882</v>
       </c>
       <c r="K6" t="n">
-        <v>232821.0313765664</v>
+        <v>232802.5376386323</v>
       </c>
       <c r="L6" t="n">
-        <v>264998.4154484904</v>
+        <v>264998.4154484902</v>
       </c>
       <c r="M6" t="n">
-        <v>140540.3070155203</v>
+        <v>140540.3070155199</v>
       </c>
       <c r="N6" t="n">
-        <v>275341.3222493569</v>
+        <v>275341.3222493572</v>
       </c>
       <c r="O6" t="n">
         <v>275341.3222493571</v>
       </c>
       <c r="P6" t="n">
-        <v>231178.7169465115</v>
+        <v>231178.7169465117</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964068</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,28 +26738,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26768,16 +26768,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108349</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>18.43019101153726</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>170.7474089416838</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>40.75989338415638</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>168.3999844691075</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>188.5132374961972</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.01365138318303</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.24077931697</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.162381606135398</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.806844538051777</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29524,13 +29524,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="32">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>215.5001249446268</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>178.6980756505696</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>526.9295015768305</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36443,7 +36443,7 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>616.5391140644617</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>127.9022662376418</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>222.9314639777537</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,10 +37470,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>476.4046458434428</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>464.3977765279033</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
